--- a/inputs/weather.xlsx
+++ b/inputs/weather.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimenofonseca/Documents/CoolingTower/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9534D0A-63F8-D747-A0AA-B3AC9A70D6E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF5A9D2-B444-204B-8B09-AD0147C25ECE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12620" yWindow="460" windowWidth="12900" windowHeight="15540" xr2:uid="{958DDDD0-80E7-5C42-8181-DC3B9A1E1328}"/>
+    <workbookView xWindow="3760" yWindow="460" windowWidth="12900" windowHeight="15540" xr2:uid="{958DDDD0-80E7-5C42-8181-DC3B9A1E1328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Tamb [C]</t>
+    <t>time</t>
   </si>
   <si>
-    <t>RH [%]</t>
+    <t>Tamb [°C]</t>
   </si>
   <si>
-    <t>time</t>
+    <t>RH [-]</t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -414,13 +414,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -431,7 +431,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="1">
-        <v>90</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -442,7 +442,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="1">
-        <v>90</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -453,7 +453,7 @@
         <v>26</v>
       </c>
       <c r="C4" s="1">
-        <v>90</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -464,7 +464,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="1">
-        <v>90</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -475,7 +475,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="1">
-        <v>90</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -486,7 +486,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="1">
-        <v>90</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -497,7 +497,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="1">
-        <v>90</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -508,7 +508,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="1">
-        <v>90</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -519,7 +519,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="1">
-        <v>60</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -530,7 +530,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="1">
-        <v>60</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -541,7 +541,7 @@
         <v>27</v>
       </c>
       <c r="C12" s="1">
-        <v>60</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -552,7 +552,7 @@
         <v>27</v>
       </c>
       <c r="C13" s="1">
-        <v>60</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -563,7 +563,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="1">
-        <v>60</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -574,7 +574,7 @@
         <v>27</v>
       </c>
       <c r="C15" s="1">
-        <v>60</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -585,7 +585,7 @@
         <v>27</v>
       </c>
       <c r="C16" s="1">
-        <v>60</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="C17" s="1">
-        <v>60</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -607,7 +607,7 @@
         <v>27</v>
       </c>
       <c r="C18" s="1">
-        <v>60</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -618,7 +618,7 @@
         <v>27</v>
       </c>
       <c r="C19" s="1">
-        <v>90</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -629,7 +629,7 @@
         <v>26</v>
       </c>
       <c r="C20" s="1">
-        <v>90</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -640,7 +640,7 @@
         <v>26</v>
       </c>
       <c r="C21" s="1">
-        <v>90</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="C22" s="1">
-        <v>90</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -662,7 +662,7 @@
         <v>26</v>
       </c>
       <c r="C23" s="1">
-        <v>90</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -673,7 +673,7 @@
         <v>26</v>
       </c>
       <c r="C24" s="1">
-        <v>90</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -684,7 +684,7 @@
         <v>26</v>
       </c>
       <c r="C25" s="1">
-        <v>90</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/weather.xlsx
+++ b/inputs/weather.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimenofonseca/Documents/CoolingTower/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF5A9D2-B444-204B-8B09-AD0147C25ECE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDA98F9-2242-DD45-BD50-229D0B7DD3C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3760" yWindow="460" windowWidth="12900" windowHeight="15540" xr2:uid="{958DDDD0-80E7-5C42-8181-DC3B9A1E1328}"/>
   </bookViews>
@@ -36,13 +36,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>Tamb [°C]</t>
   </si>
   <si>
     <t>RH [-]</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
 </sst>
 </file>
@@ -78,13 +78,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -403,52 +406,51 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="3" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>26</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>26</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
       <c r="B4" s="1">
         <v>26</v>
       </c>
@@ -457,7 +459,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="1">
@@ -468,7 +470,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="1">
@@ -479,7 +481,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" s="1">
@@ -490,7 +492,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" s="1">
@@ -501,7 +503,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" s="1">
@@ -512,7 +514,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" s="1">
@@ -523,7 +525,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" s="1">
@@ -534,7 +536,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" s="1">
@@ -545,7 +547,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" s="1">
@@ -556,7 +558,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" s="1">
@@ -567,7 +569,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" s="1">
@@ -578,7 +580,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" s="1">
@@ -589,7 +591,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" s="1">
@@ -600,7 +602,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" s="1">
@@ -611,7 +613,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" s="1">
@@ -622,7 +624,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" s="1">
@@ -633,7 +635,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" s="1">
@@ -644,7 +646,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" s="1">
@@ -655,7 +657,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+      <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" s="1">
@@ -666,7 +668,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" s="1">
@@ -677,7 +679,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+      <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" s="1">
